--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\serpay-master\serpay-back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246EC559-7C28-4DA1-BBF4-EDB59520C987}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7EB106-E68A-44DF-9922-46137C70137D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{26E1908D-E26C-4233-9E39-2CC5BE517147}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>name_tm</t>
   </si>
@@ -81,9 +81,6 @@
     <t>h56h56</t>
   </si>
   <si>
-    <t>h56</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
@@ -139,6 +136,42 @@
   </si>
   <si>
     <t>stock</t>
+  </si>
+  <si>
+    <t>sizes</t>
+  </si>
+  <si>
+    <t>XL X M</t>
+  </si>
+  <si>
+    <t>XL X</t>
+  </si>
+  <si>
+    <t>sizes_discount</t>
+  </si>
+  <si>
+    <t>10 25</t>
+  </si>
+  <si>
+    <t>sizes_quantity</t>
+  </si>
+  <si>
+    <t>10 25 10</t>
+  </si>
+  <si>
+    <t>14 7</t>
+  </si>
+  <si>
+    <t>sizes_price</t>
+  </si>
+  <si>
+    <t>50 40 30</t>
+  </si>
+  <si>
+    <t>15 20</t>
+  </si>
+  <si>
+    <t>sonky haryt</t>
   </si>
 </sst>
 </file>
@@ -491,23 +524,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9AC940-7FED-4447-A6D7-FD7C0D81AD3C}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -522,28 +560,40 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
       <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" t="s">
-        <v>36</v>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>22</v>
       </c>
@@ -560,10 +610,10 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>21</v>
@@ -572,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2">
         <v>11</v>
@@ -580,8 +630,17 @@
       <c r="L2">
         <v>25</v>
       </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>33</v>
       </c>
@@ -598,10 +657,10 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <v>213</v>
@@ -610,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3">
         <v>10</v>
@@ -619,7 +678,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22</v>
       </c>
@@ -636,10 +695,10 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>3123</v>
@@ -648,7 +707,7 @@
         <v>90</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4">
         <v>11</v>
@@ -657,7 +716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32</v>
       </c>
@@ -674,10 +733,10 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>213</v>
@@ -686,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5">
         <v>8</v>
@@ -695,12 +754,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -712,25 +771,37 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>121</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K6">
         <v>10</v>
       </c>
       <c r="L6">
         <v>12</v>
+      </c>
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\serpay-master\serpay-back\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\serpay-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7EB106-E68A-44DF-9922-46137C70137D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{26E1908D-E26C-4233-9E39-2CC5BE517147}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>name_tm</t>
   </si>
@@ -84,21 +83,6 @@
     <t>image</t>
   </si>
   <si>
-    <t>salam.jpg</t>
-  </si>
-  <si>
-    <t>waleykim.jpg</t>
-  </si>
-  <si>
-    <t>ss.jpg</t>
-  </si>
-  <si>
-    <t>baa.jpg</t>
-  </si>
-  <si>
-    <t>hello.jpg</t>
-  </si>
-  <si>
     <t>product_code</t>
   </si>
   <si>
@@ -172,12 +156,15 @@
   </si>
   <si>
     <t>sonky haryt</t>
+  </si>
+  <si>
+    <t>Image 1.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -523,11 +510,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9AC940-7FED-4447-A6D7-FD7C0D81AD3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +532,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -563,34 +550,34 @@
         <v>18</v>
       </c>
       <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>37</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>40</v>
-      </c>
-      <c r="P1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -610,10 +597,10 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>21</v>
@@ -622,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K2">
         <v>11</v>
@@ -631,13 +618,13 @@
         <v>25</v>
       </c>
       <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="P2" t="s">
-        <v>43</v>
-      </c>
       <c r="Q2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -657,10 +644,10 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>213</v>
@@ -669,7 +656,7 @@
         <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>10</v>
@@ -695,10 +682,10 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>3123</v>
@@ -707,7 +694,7 @@
         <v>90</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K4">
         <v>11</v>
@@ -733,10 +720,10 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>213</v>
@@ -745,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K5">
         <v>8</v>
@@ -759,7 +746,7 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -771,10 +758,10 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>121</v>
@@ -783,7 +770,7 @@
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -792,16 +779,16 @@
         <v>12</v>
       </c>
       <c r="M6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" t="s">
         <v>39</v>
       </c>
-      <c r="O6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" t="s">
-        <v>44</v>
-      </c>
       <c r="Q6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\serpay-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\serpay-master\serpay-back\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1BFED6-BE5F-4C2F-B720-EF9B5C029E62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>name_tm</t>
   </si>
@@ -159,12 +160,21 @@
   </si>
   <si>
     <t>Image 1.jpg</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>Image 2.jpg</t>
+  </si>
+  <si>
+    <t>Image 3.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,11 +520,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,9 +538,11 @@
     <col min="14" max="14" width="12.5703125" customWidth="1"/>
     <col min="15" max="15" width="16.5703125" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -579,8 +591,11 @@
       <c r="Q1" t="s">
         <v>40</v>
       </c>
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>22</v>
       </c>
@@ -626,8 +641,11 @@
       <c r="Q2" t="s">
         <v>41</v>
       </c>
+      <c r="R2" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>33</v>
       </c>
@@ -664,8 +682,11 @@
       <c r="L3">
         <v>50</v>
       </c>
+      <c r="R3" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22</v>
       </c>
@@ -702,8 +723,11 @@
       <c r="L4">
         <v>12</v>
       </c>
+      <c r="R4" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32</v>
       </c>
@@ -741,7 +765,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>45</v>
       </c>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\serpay-master\serpay-back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1BFED6-BE5F-4C2F-B720-EF9B5C029E62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2737551E-22BA-46CE-971E-AE3067CE924A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,10 +627,10 @@
         <v>27</v>
       </c>
       <c r="K2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="M2" t="s">
         <v>33</v>
@@ -677,10 +677,10 @@
         <v>27</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="R3" t="s">
         <v>46</v>
@@ -718,10 +718,10 @@
         <v>27</v>
       </c>
       <c r="K4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R4" t="s">
         <v>47</v>
@@ -759,10 +759,10 @@
         <v>28</v>
       </c>
       <c r="K5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -797,10 +797,10 @@
         <v>27</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
         <v>34</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\serpay-master\serpay-back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2737551E-22BA-46CE-971E-AE3067CE924A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC287E09-3AAC-4B9A-A7A2-19540BCD2917}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>name_tm</t>
   </si>
@@ -123,52 +123,46 @@
     <t>stock</t>
   </si>
   <si>
-    <t>sizes</t>
-  </si>
-  <si>
-    <t>XL X M</t>
-  </si>
-  <si>
-    <t>XL X</t>
-  </si>
-  <si>
-    <t>sizes_discount</t>
-  </si>
-  <si>
-    <t>10 25</t>
-  </si>
-  <si>
-    <t>sizes_quantity</t>
-  </si>
-  <si>
-    <t>10 25 10</t>
-  </si>
-  <si>
-    <t>14 7</t>
-  </si>
-  <si>
-    <t>sizes_price</t>
-  </si>
-  <si>
-    <t>50 40 30</t>
-  </si>
-  <si>
-    <t>15 20</t>
-  </si>
-  <si>
     <t>sonky haryt</t>
   </si>
   <si>
     <t>Image 1.jpg</t>
   </si>
   <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>Image 2.jpg</t>
-  </si>
-  <si>
-    <t>Image 3.jpg</t>
+    <t>name_en</t>
+  </si>
+  <si>
+    <t>t34t</t>
+  </si>
+  <si>
+    <t>34t34t</t>
+  </si>
+  <si>
+    <t>43t43</t>
+  </si>
+  <si>
+    <t>t43tt</t>
+  </si>
+  <si>
+    <t>3t443t</t>
+  </si>
+  <si>
+    <t>43gt43t</t>
+  </si>
+  <si>
+    <t>43t34t34t34</t>
+  </si>
+  <si>
+    <t>t43t34t</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>gfdhgfh</t>
+  </si>
+  <si>
+    <t>body_en</t>
   </si>
 </sst>
 </file>
@@ -521,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +536,7 @@
     <col min="18" max="18" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -580,22 +574,13 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>22</v>
       </c>
@@ -612,7 +597,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
@@ -633,19 +618,13 @@
         <v>2</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>33</v>
       </c>
@@ -662,7 +641,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -682,11 +661,14 @@
       <c r="L3">
         <v>2</v>
       </c>
-      <c r="R3" t="s">
-        <v>46</v>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22</v>
       </c>
@@ -703,7 +685,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
@@ -721,13 +703,16 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="R4" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32</v>
       </c>
@@ -744,7 +729,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -764,13 +749,19 @@
       <c r="L5">
         <v>16</v>
       </c>
+      <c r="M5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -782,7 +773,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
@@ -803,16 +794,10 @@
         <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" t="s">
-        <v>42</v>
+      <c r="N6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
